--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/4.xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\március\Projketlab2019-03-22\Projlab2019lev\Tesztdokumentáció\Elvégzett tesztek\Komponensek-Unit tesztek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Tesztadat:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Kilépési feltétel:</t>
   </si>
@@ -35,9 +32,6 @@
     <t>Teszt tárgya:</t>
   </si>
   <si>
-    <t>Tesztbázis:</t>
-  </si>
-  <si>
     <t>Teszt időpontja:</t>
   </si>
   <si>
@@ -57,6 +51,12 @@
   </si>
   <si>
     <t>http://www.mintantermunk.nhely.hu/web/index.htm</t>
+  </si>
+  <si>
+    <t>2019.05.14-16</t>
+  </si>
+  <si>
+    <t>Tesztlépés:</t>
   </si>
 </sst>
 </file>
@@ -81,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -90,9 +90,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -105,12 +135,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -120,10 +219,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -135,82 +258,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -228,24 +291,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -526,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,78 +612,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8">
-        <v>43599</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/4.xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\március\Projketlab2019-03-22\Projlab2019lev\Tesztdokumentáció\Elvégzett tesztek\Komponensek-Unit tesztek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aniko\Desktop\Projekt\Projlab2019lev\Tesztdokumentáció\Elvégzett tesztek\Komponensek-Unit tesztek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="1610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="1608"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -288,8 +297,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -313,12 +323,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,50 +611,50 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -653,7 +664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -661,7 +672,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -669,7 +680,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -677,7 +688,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -685,7 +696,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -694,6 +705,9 @@
       <c r="D9" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/4.xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aniko\Desktop\Projekt\Projlab2019lev\Tesztdokumentáció\Elvégzett tesztek\Komponensek-Unit tesztek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\március\Projketlab2019-03-22\Projlab2019lev\Tesztdokumentáció\Elvégzett tesztek\Komponensek-Unit tesztek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="1608"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="1610"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Kilépési feltétel:</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Tesztlépés:</t>
+  </si>
+  <si>
+    <t>weboldal szerkezet</t>
+  </si>
+  <si>
+    <t>nincs a felületen</t>
+  </si>
+  <si>
+    <t>hiány</t>
   </si>
 </sst>
 </file>
@@ -611,18 +620,18 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -630,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -640,7 +649,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -650,7 +659,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -664,15 +673,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -680,7 +695,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -688,7 +703,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -696,7 +711,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>

--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/4.xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Kilépési feltétel:</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>hiány</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elérhetőségi adatok </t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +694,9 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="5"/>
     </row>
